--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail1 Features.xlsx
@@ -2622,7 +2622,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.420369833815636</v>
+        <v>1.393673878135708</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.996145880990432</v>
@@ -2711,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.421443181537765</v>
+        <v>1.393271862490243</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.997663053552428</v>
@@ -2800,7 +2800,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.401822836182631</v>
+        <v>1.373981583917192</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.955462172756277</v>
@@ -2889,7 +2889,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.413080836092959</v>
+        <v>1.384358700422937</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.976882642642898</v>
@@ -2978,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.427941820524977</v>
+        <v>1.391332239940098</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.993703357381726</v>
@@ -3067,7 +3067,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.398757213640081</v>
+        <v>1.372243356777926</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.958469558002953</v>
@@ -3156,7 +3156,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.472009916918128</v>
+        <v>1.439541576845201</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.870657896733836</v>
@@ -3245,7 +3245,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.521578864047499</v>
+        <v>1.475227494966227</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.193523785716488</v>
@@ -3334,7 +3334,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.52885043183984</v>
+        <v>1.487923354696956</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.310505975199526</v>
@@ -3423,7 +3423,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.52430004285116</v>
+        <v>1.491457207807018</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.198555130684495</v>
@@ -3512,7 +3512,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.490463015805345</v>
+        <v>1.459882014709066</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.23225697676307</v>
@@ -3601,7 +3601,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.455016020388891</v>
+        <v>1.434279293595156</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.335368228198006</v>
@@ -3690,7 +3690,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.456654132177668</v>
+        <v>1.437429307746656</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.285555924516836</v>
@@ -3779,7 +3779,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.459043969300568</v>
+        <v>1.438792883758394</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.255324094735382</v>
@@ -3868,7 +3868,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.458995007961088</v>
+        <v>1.444208465418037</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.300126578383539</v>
@@ -3957,7 +3957,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.446419584716123</v>
+        <v>1.433287917711959</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.376311030797523</v>
@@ -4046,7 +4046,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.448142583205593</v>
+        <v>1.434539182564945</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.355123757354305</v>
@@ -4135,7 +4135,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.466318113660758</v>
+        <v>1.44658505593936</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.259524567434426</v>
@@ -4224,7 +4224,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.459710725495124</v>
+        <v>1.438219845881272</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.349478481861385</v>
@@ -4313,7 +4313,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.461608026477097</v>
+        <v>1.441834386866305</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.102920990337115</v>
@@ -4402,7 +4402,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.509329677929417</v>
+        <v>1.483476129738995</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.313454898395785</v>
@@ -4491,7 +4491,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.512546949388915</v>
+        <v>1.484525098741713</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.334678103162052</v>
@@ -4580,7 +4580,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.488048764769314</v>
+        <v>1.466624409047399</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.37724539900253</v>
@@ -4669,7 +4669,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.492655399975434</v>
+        <v>1.470324146294017</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.374188522361889</v>
@@ -4758,7 +4758,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.498644499337846</v>
+        <v>1.472835009681182</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.279661092650896</v>
@@ -4847,7 +4847,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.563971346166006</v>
+        <v>1.5344116276211</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.550514441331205</v>
@@ -4936,7 +4936,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.596799612282174</v>
+        <v>1.55635530834217</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.426072382419077</v>
@@ -5025,7 +5025,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.592102826176826</v>
+        <v>1.548347800182775</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.476479705839485</v>
@@ -5114,7 +5114,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.598883664504488</v>
+        <v>1.547348250482899</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.631460298393808</v>
@@ -5203,7 +5203,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.600649384361</v>
+        <v>1.542007987337719</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.427299230048573</v>
@@ -5292,7 +5292,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.604136116464481</v>
+        <v>1.543108116542211</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.503249777992164</v>
@@ -5381,7 +5381,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599942771904393</v>
+        <v>1.544536328541752</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.421691518196548</v>
@@ -5470,7 +5470,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.563280159121238</v>
+        <v>1.528135023268677</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.452541076412127</v>
@@ -5559,7 +5559,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.569910534869307</v>
+        <v>1.532139388014463</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.272305679616466</v>
@@ -5648,7 +5648,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582005904885655</v>
+        <v>1.537538947001506</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.423571861594144</v>
@@ -5737,7 +5737,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.571911101044848</v>
+        <v>1.521837693838127</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.422917526313581</v>
@@ -5826,7 +5826,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.537293980656183</v>
+        <v>1.49680162228117</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.457995772584034</v>
@@ -5915,7 +5915,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.538817408614085</v>
+        <v>1.495145737039346</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.601863127926722</v>
@@ -6004,7 +6004,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.491747665369366</v>
+        <v>1.454599587518316</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.28279958877147</v>
@@ -6093,7 +6093,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.454023272765342</v>
+        <v>1.433156590530404</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.388035180545996</v>
@@ -6182,7 +6182,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.420266633667907</v>
+        <v>1.405854420314023</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.390447051840029</v>
@@ -6271,7 +6271,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.399524864419755</v>
+        <v>1.387202804842934</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.435558261609177</v>
@@ -6557,7 +6557,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.7041810212537</v>
+        <v>1.60650390788512</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.298334552145164</v>
@@ -6646,7 +6646,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.697678078243646</v>
+        <v>1.596831228662154</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.109029618174067</v>
@@ -6735,7 +6735,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.6919926626096</v>
+        <v>1.592525395442274</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.288723951566561</v>
@@ -6824,7 +6824,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.696015843678175</v>
+        <v>1.593961134221761</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.091656050765927</v>
@@ -6913,7 +6913,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.717877121714716</v>
+        <v>1.600586440269965</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.395279140752667</v>
@@ -7002,7 +7002,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.709045870926086</v>
+        <v>1.596831545084409</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.106032396603633</v>
@@ -7091,7 +7091,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.718645332385503</v>
+        <v>1.60972220969986</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.367519129906706</v>
@@ -7180,7 +7180,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.713672174744966</v>
+        <v>1.595165068030838</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.365242699968301</v>
@@ -7269,7 +7269,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.732990468434397</v>
+        <v>1.622554119594359</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.252595344407297</v>
@@ -7358,7 +7358,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.754471131190046</v>
+        <v>1.648535716245539</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.449105449620698</v>
@@ -7447,7 +7447,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.753416258984071</v>
+        <v>1.662750645890869</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.171283137387872</v>
@@ -7536,7 +7536,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.73112235360674</v>
+        <v>1.655395882195268</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.020056903280629</v>
@@ -7625,7 +7625,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.739223681032162</v>
+        <v>1.664463309093532</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.091188627650398</v>
@@ -7714,7 +7714,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.740495230521824</v>
+        <v>1.664114670472947</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.058896698729888</v>
@@ -7803,7 +7803,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.735302481929786</v>
+        <v>1.666768919271313</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.965528843663821</v>
@@ -7892,7 +7892,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.723618300115033</v>
+        <v>1.661700821952874</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.140702751273376</v>
@@ -7981,7 +7981,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.718444088522294</v>
+        <v>1.654287409739796</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.981110274116426</v>
@@ -8070,7 +8070,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.714741473623336</v>
+        <v>1.637672311214637</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.157506909783411</v>
@@ -8159,7 +8159,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.699726287552575</v>
+        <v>1.619844521948457</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.121812570455402</v>
@@ -8248,7 +8248,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.691145553367169</v>
+        <v>1.616852416968286</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.107799074031353</v>
@@ -8337,7 +8337,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.693899936343738</v>
+        <v>1.616651136681826</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.07910270987835</v>
@@ -8426,7 +8426,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.691589042194472</v>
+        <v>1.608179904921049</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.077042128093001</v>
@@ -8515,7 +8515,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.691461629397205</v>
+        <v>1.614253439322392</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.057764684789182</v>
@@ -8604,7 +8604,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.697093370837951</v>
+        <v>1.616148883570943</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.794287037116841</v>
@@ -8693,7 +8693,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.685485731567069</v>
+        <v>1.607808229561436</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.848966989603426</v>
@@ -8782,7 +8782,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.703090335684277</v>
+        <v>1.605654504147916</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.948623170271449</v>
@@ -8871,7 +8871,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.703460156171341</v>
+        <v>1.599661966745886</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.343926799321074</v>
@@ -8960,7 +8960,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.676831361569332</v>
+        <v>1.570498480802478</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.375953624421137</v>
@@ -9049,7 +9049,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.67649327365176</v>
+        <v>1.567516299245455</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.214658254151378</v>
@@ -9138,7 +9138,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.666315405094592</v>
+        <v>1.550838989074607</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.969566688650574</v>
@@ -9227,7 +9227,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.677867046222786</v>
+        <v>1.555430056049295</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.20218292967144</v>
@@ -9316,7 +9316,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.678755943806792</v>
+        <v>1.556701964957471</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.195975814207773</v>
@@ -9405,7 +9405,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.683521507744798</v>
+        <v>1.570203788055537</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.165365826327315</v>
@@ -9494,7 +9494,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.697131653958829</v>
+        <v>1.582215536821559</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.989861691910171</v>
@@ -9583,7 +9583,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.684264375731758</v>
+        <v>1.574987881885779</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.509547733146054</v>
@@ -9672,7 +9672,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.678868952389755</v>
+        <v>1.568771842594153</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.320910937594928</v>
@@ -9761,7 +9761,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.675581161039406</v>
+        <v>1.571829573184489</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.752762722134856</v>
@@ -9850,7 +9850,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.67020394609162</v>
+        <v>1.564781147561546</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.449265604156751</v>
@@ -9939,7 +9939,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.647985413477919</v>
+        <v>1.546128986204076</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.037733272514489</v>
@@ -10028,7 +10028,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.649661144110014</v>
+        <v>1.549393031800894</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.366683882139935</v>
@@ -10117,7 +10117,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.653116266210476</v>
+        <v>1.554539156367445</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.321092808224947</v>
@@ -10206,7 +10206,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.657992882693929</v>
+        <v>1.560898804396195</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.293688428845767</v>
@@ -10492,7 +10492,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.738458431544228</v>
+        <v>1.61609195976058</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.159357624524008</v>
@@ -10581,7 +10581,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.731272608581628</v>
+        <v>1.604657371664874</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.955690440059202</v>
@@ -10670,7 +10670,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.720272621636138</v>
+        <v>1.593370251745001</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.961760412942466</v>
@@ -10759,7 +10759,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.722159713453301</v>
+        <v>1.592183190852338</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.86611260388822</v>
@@ -10848,7 +10848,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.734483285489351</v>
+        <v>1.597379241828689</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.263949063116225</v>
@@ -10937,7 +10937,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.736071756758103</v>
+        <v>1.60425963907806</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.908512262003703</v>
@@ -11026,7 +11026,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.754920106729478</v>
+        <v>1.609419558933807</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.596938482007691</v>
@@ -11115,7 +11115,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.75871483644776</v>
+        <v>1.606145607227562</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.493136309246795</v>
@@ -11204,7 +11204,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.752880503196152</v>
+        <v>1.597937763458141</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.51752873203523</v>
@@ -11293,7 +11293,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.746232993778517</v>
+        <v>1.596439566033989</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.576225846770031</v>
@@ -11382,7 +11382,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.760794412949931</v>
+        <v>1.624601097887019</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.150122099320476</v>
@@ -11471,7 +11471,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.754711522947249</v>
+        <v>1.627912575728466</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.994930593768331</v>
@@ -11560,7 +11560,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.753188824779921</v>
+        <v>1.63210446784339</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.156384398290465</v>
@@ -11649,7 +11649,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.76363183010366</v>
+        <v>1.644959433042582</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.220904553298964</v>
@@ -11738,7 +11738,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.760156885301827</v>
+        <v>1.656999461395483</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.378521348217737</v>
@@ -11827,7 +11827,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.763658408038549</v>
+        <v>1.655892995779991</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.30871334264543</v>
@@ -11916,7 +11916,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.762618335856606</v>
+        <v>1.655492244701164</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.419593691937097</v>
@@ -12005,7 +12005,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.772018552573056</v>
+        <v>1.654846755206453</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.132774018737048</v>
@@ -12094,7 +12094,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.768162729633248</v>
+        <v>1.650343634625751</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.294502346371758</v>
@@ -12183,7 +12183,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.758151633973766</v>
+        <v>1.646714170973047</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.123067533681345</v>
@@ -12272,7 +12272,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.758751289183563</v>
+        <v>1.643609574275293</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.206086517580498</v>
@@ -12361,7 +12361,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.755329817282683</v>
+        <v>1.641321984192315</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.27231600482885</v>
@@ -12450,7 +12450,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.753580572319451</v>
+        <v>1.644818705350171</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.332762736002992</v>
@@ -12539,7 +12539,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.755282679218628</v>
+        <v>1.649989968927633</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.171062767581196</v>
@@ -12628,7 +12628,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.751876111410375</v>
+        <v>1.649308468268627</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.231919097575514</v>
@@ -12717,7 +12717,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.744909674153629</v>
+        <v>1.623739289944142</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.409661110353883</v>
@@ -12806,7 +12806,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.743223846159181</v>
+        <v>1.616154619029679</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.367384863423311</v>
@@ -12895,7 +12895,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.729813495186523</v>
+        <v>1.597404076822502</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.063603498605877</v>
@@ -12984,7 +12984,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.71395283322742</v>
+        <v>1.570949850235981</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.973390821174383</v>
@@ -13073,7 +13073,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.709445665334618</v>
+        <v>1.543900834018203</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.197347719090484</v>
@@ -13162,7 +13162,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.702659892672703</v>
+        <v>1.538704723414497</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.427968574573618</v>
@@ -13251,7 +13251,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.704420825773364</v>
+        <v>1.539673878829603</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.360823110334723</v>
@@ -13340,7 +13340,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.714111004706115</v>
+        <v>1.551937431461742</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.601864903559886</v>
@@ -13429,7 +13429,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.716085130488509</v>
+        <v>1.559066318721435</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.374297033178479</v>
@@ -13518,7 +13518,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.713506893522459</v>
+        <v>1.56435640751772</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.811680880039812</v>
@@ -13607,7 +13607,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.706089350073586</v>
+        <v>1.552628343772792</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.706989897000341</v>
@@ -13696,7 +13696,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.703682979884398</v>
+        <v>1.55383439289872</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.673606205508589</v>
@@ -13785,7 +13785,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.69888322187546</v>
+        <v>1.546131104164545</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.515773396203134</v>
@@ -13874,7 +13874,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.684961949145979</v>
+        <v>1.531319185299483</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.197556978607696</v>
@@ -13963,7 +13963,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.686306760312458</v>
+        <v>1.537480915754028</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.294243377838247</v>
@@ -14052,7 +14052,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.68805258258715</v>
+        <v>1.54245247865967</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.347272271696137</v>
@@ -14141,7 +14141,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.688089090875011</v>
+        <v>1.549010132062022</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.302568615991914</v>
@@ -14427,7 +14427,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.617108026762297</v>
+        <v>1.49582921491523</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.165670477012002</v>
@@ -14516,7 +14516,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.612782777529986</v>
+        <v>1.485784129347485</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.95932177960506</v>
@@ -14605,7 +14605,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.617727974909011</v>
+        <v>1.484131810713605</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.054860413172434</v>
@@ -14694,7 +14694,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.614353960565579</v>
+        <v>1.487668368144501</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.072766044160856</v>
@@ -14783,7 +14783,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.62941954494361</v>
+        <v>1.491304771422187</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.941501718383542</v>
@@ -14872,7 +14872,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.629294677941189</v>
+        <v>1.488054031479648</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.292561229977161</v>
@@ -14961,7 +14961,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.647867230235158</v>
+        <v>1.497608859416996</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.132090007889044</v>
@@ -15050,7 +15050,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.655208561681047</v>
+        <v>1.489754568701409</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.310212227111894</v>
@@ -15139,7 +15139,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.671356181599296</v>
+        <v>1.500486344213502</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.988082218273011</v>
@@ -15228,7 +15228,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.685342588292966</v>
+        <v>1.522380578056737</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.128110966752001</v>
@@ -15317,7 +15317,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.665751767096055</v>
+        <v>1.520725722789076</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.687475981533078</v>
@@ -15406,7 +15406,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.655248663536085</v>
+        <v>1.525494733917498</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.726671004763493</v>
@@ -15495,7 +15495,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.654044017358041</v>
+        <v>1.528595586197954</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.940292553144376</v>
@@ -15584,7 +15584,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.668146726577596</v>
+        <v>1.535918757593154</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.898160095782043</v>
@@ -15673,7 +15673,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.655835087489053</v>
+        <v>1.539168139395152</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.85855432289073</v>
@@ -15762,7 +15762,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.655553761519085</v>
+        <v>1.541480460234596</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.934906305019627</v>
@@ -15851,7 +15851,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.652202506913561</v>
+        <v>1.53681285090756</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.904767385561424</v>
@@ -15940,7 +15940,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.645300672172344</v>
+        <v>1.528538106938833</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.948647319484368</v>
@@ -16029,7 +16029,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.653461545574742</v>
+        <v>1.533209310500797</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.97500175128475</v>
@@ -16118,7 +16118,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.648452912483151</v>
+        <v>1.534152396873482</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.99016251650696</v>
@@ -16207,7 +16207,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.649251478569249</v>
+        <v>1.533275271002245</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.87192123189509</v>
@@ -16296,7 +16296,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.645528178793046</v>
+        <v>1.529496642221008</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.86962151619939</v>
@@ -16385,7 +16385,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.645761095703765</v>
+        <v>1.531449837620147</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.043467738593478</v>
@@ -16474,7 +16474,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.645326487746861</v>
+        <v>1.533331680951371</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.01052367434048</v>
@@ -16563,7 +16563,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.64256674644058</v>
+        <v>1.529678836873987</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.944976169643761</v>
@@ -16652,7 +16652,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.670886626414976</v>
+        <v>1.536149508744752</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.266032557388698</v>
@@ -16741,7 +16741,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.675079077021095</v>
+        <v>1.532131902410667</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.133430855512597</v>
@@ -16830,7 +16830,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.665098653104758</v>
+        <v>1.517253409300866</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.897290434836556</v>
@@ -16919,7 +16919,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.661358580395867</v>
+        <v>1.506583136402035</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.152019506845048</v>
@@ -17008,7 +17008,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.668082641330806</v>
+        <v>1.491238016549759</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.243536565411901</v>
@@ -17097,7 +17097,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.672188004003656</v>
+        <v>1.488131020852181</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.972627860668214</v>
@@ -17186,7 +17186,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.673406552976286</v>
+        <v>1.485164638478158</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.814964549464298</v>
@@ -17275,7 +17275,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.670707665790693</v>
+        <v>1.480000454907099</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.27553493059714</v>
@@ -17364,7 +17364,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.666620039432837</v>
+        <v>1.471673463865799</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.116588933615413</v>
@@ -17453,7 +17453,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.672901791928542</v>
+        <v>1.479678750379522</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.948156481227713</v>
@@ -17542,7 +17542,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.676414209103361</v>
+        <v>1.484021451856069</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.199329736752453</v>
@@ -17631,7 +17631,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.67929638021889</v>
+        <v>1.478280073403839</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.516329924866502</v>
@@ -17720,7 +17720,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.673130551550025</v>
+        <v>1.471564038297369</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.471522196480721</v>
@@ -17809,7 +17809,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.654052089186305</v>
+        <v>1.459414613850633</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.289492973017214</v>
@@ -17898,7 +17898,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.644071125609536</v>
+        <v>1.455474225104851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.508409739472217</v>
@@ -17987,7 +17987,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.632219075059154</v>
+        <v>1.451500528378646</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.439667438454977</v>
@@ -18076,7 +18076,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631406930722064</v>
+        <v>1.453093305428145</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.103618765376052</v>
@@ -18362,7 +18362,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.502567437044949</v>
+        <v>1.440202047728504</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.956038887744459</v>
@@ -18451,7 +18451,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.491417614871666</v>
+        <v>1.429550030682972</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.912845084015403</v>
@@ -18540,7 +18540,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.485337068629506</v>
+        <v>1.420914253043956</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.940027870760067</v>
@@ -18629,7 +18629,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.493587302341244</v>
+        <v>1.427701841985619</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.912520178284383</v>
@@ -18718,7 +18718,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.575446620838499</v>
+        <v>1.481350770072222</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.289285734783455</v>
@@ -18807,7 +18807,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.578654674798133</v>
+        <v>1.483761768032344</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.353356108270027</v>
@@ -18896,7 +18896,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.601276464206388</v>
+        <v>1.505713206139981</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.455175959555467</v>
@@ -18985,7 +18985,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.646680063252749</v>
+        <v>1.535415817103572</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.40595218180838</v>
@@ -19074,7 +19074,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.64835985309733</v>
+        <v>1.546293540308897</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.03317062867321</v>
@@ -19163,7 +19163,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.651948858385264</v>
+        <v>1.559908860511212</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.190160387821327</v>
@@ -19252,7 +19252,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.622343101510902</v>
+        <v>1.543300800113027</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.533235333739011</v>
@@ -19341,7 +19341,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.582796918224185</v>
+        <v>1.516591409193825</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.527424624464027</v>
@@ -19430,7 +19430,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597240290415336</v>
+        <v>1.530182643317084</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.467399526426548</v>
@@ -19519,7 +19519,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611161855140258</v>
+        <v>1.544939208000773</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.628260942950384</v>
@@ -19608,7 +19608,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.535912133243285</v>
+        <v>1.485280762702269</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.188736105780065</v>
@@ -19697,7 +19697,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.520353577302063</v>
+        <v>1.473826976371508</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.213263856025278</v>
@@ -19786,7 +19786,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.515614827355695</v>
+        <v>1.463940475658522</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.132183441581519</v>
@@ -19875,7 +19875,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.516703513617361</v>
+        <v>1.459660284821384</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.196617134938386</v>
@@ -19964,7 +19964,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.520091520160028</v>
+        <v>1.456923123121253</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.242703545693845</v>
@@ -20053,7 +20053,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.523597680678225</v>
+        <v>1.460047685494916</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.186960977057724</v>
@@ -20142,7 +20142,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.526183091822483</v>
+        <v>1.466408441920112</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.213924206724868</v>
@@ -20231,7 +20231,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.527092936476103</v>
+        <v>1.46635849842298</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.250225136307345</v>
@@ -20320,7 +20320,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.526286826912136</v>
+        <v>1.463137407271108</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.21374602616447</v>
@@ -20409,7 +20409,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.53536168641213</v>
+        <v>1.468554422138056</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.163991669889483</v>
@@ -20498,7 +20498,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.540917997069868</v>
+        <v>1.469037612709087</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.147351038166994</v>
@@ -20587,7 +20587,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.568075915247576</v>
+        <v>1.490702413689644</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.969756096728508</v>
@@ -20676,7 +20676,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.596029977088978</v>
+        <v>1.510805291318623</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.106733059505355</v>
@@ -20765,7 +20765,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.567974760832741</v>
+        <v>1.484759797989494</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.142369884333851</v>
@@ -20854,7 +20854,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.557486349233824</v>
+        <v>1.464890266163517</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.047557046170648</v>
@@ -20943,7 +20943,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.642546025889583</v>
+        <v>1.515469310719554</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.762374316365189</v>
@@ -21032,7 +21032,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.664970781852168</v>
+        <v>1.519912487121699</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.261293688979817</v>
@@ -21121,7 +21121,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.659835188908654</v>
+        <v>1.519521807316827</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.585726994607482</v>
@@ -21210,7 +21210,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644163300304277</v>
+        <v>1.514688891938035</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.306683963582096</v>
@@ -21299,7 +21299,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.629750345192971</v>
+        <v>1.50787852534448</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.231967536242417</v>
@@ -21388,7 +21388,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.615516306799282</v>
+        <v>1.501630757105874</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.198412061398206</v>
@@ -21477,7 +21477,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.608512573012796</v>
+        <v>1.485616820974235</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.82573631112967</v>
@@ -21566,7 +21566,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.601738786934142</v>
+        <v>1.479170447034455</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.188354292477224</v>
@@ -21655,7 +21655,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.600758022551964</v>
+        <v>1.475616305751961</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.073155255651216</v>
@@ -21744,7 +21744,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.58151450498358</v>
+        <v>1.456578444365799</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.00618309366223</v>
@@ -21833,7 +21833,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.576470625853298</v>
+        <v>1.459880751497536</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.074753143410104</v>
@@ -21922,7 +21922,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.573474006920059</v>
+        <v>1.454137940586405</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.078047695040429</v>
@@ -22011,7 +22011,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.568894156695008</v>
+        <v>1.453085626567488</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.976628482331476</v>
@@ -22297,7 +22297,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.418054690198161</v>
+        <v>1.373079958525228</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.371834895757265</v>
@@ -22386,7 +22386,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.438853668339802</v>
+        <v>1.388108011470435</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.329141150540003</v>
@@ -22475,7 +22475,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.415521279540039</v>
+        <v>1.365239313963424</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.100682580947673</v>
@@ -22564,7 +22564,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.418119887848036</v>
+        <v>1.373633945279467</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.239029371010188</v>
@@ -22653,7 +22653,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.432509595274424</v>
+        <v>1.384197191167235</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.171405075621017</v>
@@ -22742,7 +22742,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.449513143462961</v>
+        <v>1.399077426995808</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.079215422529893</v>
@@ -22831,7 +22831,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.499327013411542</v>
+        <v>1.444095969028515</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.958332783617476</v>
@@ -22920,7 +22920,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.529116011628786</v>
+        <v>1.465068868015677</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.064731642071162</v>
@@ -23009,7 +23009,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.542106019473232</v>
+        <v>1.477944117359922</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.98735632556447</v>
@@ -23098,7 +23098,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.516515499948744</v>
+        <v>1.467068773384765</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.051341702971776</v>
@@ -23187,7 +23187,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.490488801616652</v>
+        <v>1.4437562775999</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.947568653728153</v>
@@ -23276,7 +23276,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.410606641027434</v>
+        <v>1.392038021453247</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.012068383668776</v>
@@ -23365,7 +23365,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.419143724632357</v>
+        <v>1.405219909434949</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.984899532596778</v>
@@ -23454,7 +23454,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.408736665887725</v>
+        <v>1.402536926155405</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.005608043977249</v>
@@ -23543,7 +23543,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.412773730036726</v>
+        <v>1.409841507273325</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.035137199742331</v>
@@ -23632,7 +23632,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.402578523534475</v>
+        <v>1.402642318804434</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.037179015988189</v>
@@ -23721,7 +23721,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.396707616277387</v>
+        <v>1.394611595887745</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.032005718415964</v>
@@ -23810,7 +23810,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.426058886024834</v>
+        <v>1.420761689557096</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.038842126441207</v>
@@ -23899,7 +23899,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.429702774954968</v>
+        <v>1.41820646612657</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.999113727252805</v>
@@ -23988,7 +23988,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.43052106332829</v>
+        <v>1.420886401395785</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.018481636687254</v>
@@ -24077,7 +24077,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.43051874337379</v>
+        <v>1.419390592491377</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.006388339286783</v>
@@ -24166,7 +24166,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.42953129346974</v>
+        <v>1.416888648150495</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.012521748966642</v>
@@ -24255,7 +24255,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.411616217236777</v>
+        <v>1.401791068922156</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.00555780433468</v>
@@ -24344,7 +24344,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.413922669701939</v>
+        <v>1.407432365463786</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.018047710789733</v>
@@ -24433,7 +24433,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.433510364828901</v>
+        <v>1.422504759192444</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.943519022143976</v>
@@ -24522,7 +24522,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.496534857516923</v>
+        <v>1.46935603115955</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.912442442746748</v>
@@ -24611,7 +24611,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.565416966553775</v>
+        <v>1.52609658081059</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.623447791643613</v>
@@ -24700,7 +24700,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.565073155274909</v>
+        <v>1.515306467840532</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.334531395397084</v>
@@ -24789,7 +24789,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.587732185181354</v>
+        <v>1.513989150561605</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.639267550008082</v>
@@ -24878,7 +24878,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584886716193579</v>
+        <v>1.491846953033251</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.621094227116088</v>
@@ -24967,7 +24967,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.591032552783461</v>
+        <v>1.487852169471527</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.725700857904649</v>
@@ -25056,7 +25056,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599340736204013</v>
+        <v>1.495974807170793</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.696065400529501</v>
@@ -25145,7 +25145,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532435498194662</v>
+        <v>1.456727492909392</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.206263115780604</v>
@@ -25234,7 +25234,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.531977699227959</v>
+        <v>1.461066879487833</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.24432324577794</v>
@@ -25323,7 +25323,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.535484531447068</v>
+        <v>1.463137077618027</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.219912811127152</v>
@@ -25412,7 +25412,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.535022089692033</v>
+        <v>1.457212698518459</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.293122782609563</v>
@@ -25501,7 +25501,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.504299182138924</v>
+        <v>1.433451305352964</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.291028379418563</v>
@@ -25590,7 +25590,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.525682027456894</v>
+        <v>1.448568805170552</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.282770985610494</v>
@@ -25679,7 +25679,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.502501794472472</v>
+        <v>1.424532328739369</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.203253398213175</v>
@@ -25768,7 +25768,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.473187200056511</v>
+        <v>1.402842117249978</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.312914289368848</v>
@@ -25857,7 +25857,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.447913578515954</v>
+        <v>1.390564588295177</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.261372970586047</v>
@@ -25946,7 +25946,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.43296466868452</v>
+        <v>1.377957656673041</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.328089899693115</v>
